--- a/Project1/График.xlsx
+++ b/Project1/График.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\1 course\2 semester\Algorithms and data structures\Lab1\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89757236-10CD-47AA-830C-B6AF045A6025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0B99C-CAD1-40CB-843F-3284CC856B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>shakerSort</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>LIST</t>
+  </si>
+  <si>
+    <t>bubbleSort</t>
   </si>
 </sst>
 </file>
@@ -359,6 +362,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A695-4755-85D0-CBD280124355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$H$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6779999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-887B-40C8-A30B-1CC167781077}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,6 +966,99 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bubbleSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.591999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8905-4671-B52B-55610BB1E18E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2538,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,6 +2813,32 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1E-3</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H4">
+        <v>1.6779999999999999</v>
+      </c>
+    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
@@ -2702,6 +2917,32 @@
       </c>
       <c r="H10">
         <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.252</v>
+      </c>
+      <c r="E11">
+        <v>1.022</v>
+      </c>
+      <c r="F11">
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="G11">
+        <v>16.73</v>
+      </c>
+      <c r="H11">
+        <v>71.591999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Project1/График.xlsx
+++ b/Project1/График.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\1 course\2 semester\Algorithms and data structures\Lab1\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studies\Algorithms\lab01\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C0B99C-CAD1-40CB-843F-3284CC856B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B1549F-8A1C-4698-8FB0-3583A3191856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>shakerSort</t>
   </si>
   <si>
     <t>mergeSort</t>
-  </si>
-  <si>
-    <t>LIST</t>
   </si>
   <si>
     <t>bubbleSort</t>
@@ -674,648 +671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Сравнение методов сортировки</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>списка</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31223600174978128"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>shakerSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.113</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.304</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8689999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29.472000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-276D-42DC-9CE3-C6E01E09F954}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mergeSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16800000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-276D-42DC-9CE3-C6E01E09F954}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bubbleSort</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6400</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$11:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.1390000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71.591999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8905-4671-B52B-55610BB1E18E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="922497208"/>
-        <c:axId val="922505128"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="922497208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="922505128"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="922505128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="922497208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1871,536 +1227,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2420,42 +1260,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E196C4-646E-B273-6D0F-6EC035D46522}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2727,18 +1531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>400</v>
       </c>
@@ -2761,7 +1565,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2787,7 +1591,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2813,9 +1617,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2837,112 +1641,6 @@
       </c>
       <c r="H4">
         <v>1.6779999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
-      </c>
-      <c r="D8">
-        <v>800</v>
-      </c>
-      <c r="E8">
-        <v>1600</v>
-      </c>
-      <c r="F8">
-        <v>3200</v>
-      </c>
-      <c r="G8">
-        <v>6400</v>
-      </c>
-      <c r="H8">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C9">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D9">
-        <v>0.113</v>
-      </c>
-      <c r="E9">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F9">
-        <v>1.304</v>
-      </c>
-      <c r="G9">
-        <v>6.8689999999999998</v>
-      </c>
-      <c r="H9">
-        <v>29.472000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>2E-3</v>
-      </c>
-      <c r="C10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D10">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G10">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="H10">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C11">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.252</v>
-      </c>
-      <c r="E11">
-        <v>1.022</v>
-      </c>
-      <c r="F11">
-        <v>4.1390000000000002</v>
-      </c>
-      <c r="G11">
-        <v>16.73</v>
-      </c>
-      <c r="H11">
-        <v>71.591999999999999</v>
       </c>
     </row>
   </sheetData>
